--- a/biology/Botanique/Wine_Country_(Californie)/Wine_Country_(Californie).xlsx
+++ b/biology/Botanique/Wine_Country_(Californie)/Wine_Country_(Californie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wine Country (en français « pays du vin ») est une région située en Californie du Nord, aux États-Unis, réputée pour sa production de vin depuis le XIXe siècle[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wine Country (en français « pays du vin ») est une région située en Californie du Nord, aux États-Unis, réputée pour sa production de vin depuis le XIXe siècle. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'essor de la viticulture et du vin est lié d'abord à l'influence espagnole des monastères et des églises catholiques, avant que la Californie soit rattachée aux États-Unis et développe son agriculture[évasif]. 
 Au XIXe siècle, avec l'essor démographique lié à la ruée vers l'or, la culture du vin arrive en Californie par l'intermédiaire des migrants italiens, français, allemands, grecs, hongrois, russes venus faire fortune... 
@@ -547,7 +561,9 @@
           <t>Domaines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'un des domaines les plus connus est celui de Robert Mondavi, mais d'autres comme Beaulieu Vineyards l'ont précédé sans forcément atteindre sa renommée mondiale. 
 Le gouvernement fédéral établit et gère une liste de régions viticoles réglementant les appellations.
@@ -579,7 +595,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales localités de la région sont Kenwood, Healdsburg, Sonoma, Santa Rosa, Napa, Yountville, St. Helena, Calistoga, Geyserville, Petaluma, Sebastopol, Guerneville, Fort Ross et Ukiah.
 Wine Country proprement dit inclut généralement les comtés de Napa, Sonoma, Mendocino et Lake, mais on trouve des vignobles à travers l'ensemble du nord de la Californie, ainsi que dans le sud de l'État. 
@@ -611,7 +629,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Wine Country a largement été mis à l'honneur dans le film Sideways, dans lequel deux amis parcourent la région.
 </t>
